--- a/data/georgia_census/qvemo-qartli/marneuli/healthcare_staff.xlsx
+++ b/data/georgia_census/qvemo-qartli/marneuli/healthcare_staff.xlsx
@@ -1310,13 +1310,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F493BDA0-EEDC-41E2-86A6-0D0C959274E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF43FC0A-DBE4-4A83-966F-D111A4D6935C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5528C37-4EF6-40FB-A32D-B00AB49A4624}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A01BE22-4EED-425F-91F8-9EF4AE4CFA8B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557F92D2-FB3E-4F84-BC10-0AB6BE90B84A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA32F0B-FD05-4A33-A5F0-018428C583BB}"/>
 </file>